--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lif-Il6st.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lif-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Lif</t>
+  </si>
+  <si>
+    <t>Il6st</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lif</t>
-  </si>
-  <si>
-    <t>Il6st</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -546,10 +546,10 @@
         <v>8.603936000000001</v>
       </c>
       <c r="I2">
-        <v>0.5389395658779439</v>
+        <v>0.8192888930871463</v>
       </c>
       <c r="J2">
-        <v>0.5730299235867837</v>
+        <v>0.8192888930871461</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>54.43165466666667</v>
+        <v>55.783591</v>
       </c>
       <c r="N2">
-        <v>163.294964</v>
+        <v>167.350773</v>
       </c>
       <c r="O2">
-        <v>0.2228930782800698</v>
+        <v>0.2332214199005771</v>
       </c>
       <c r="P2">
-        <v>0.2327227899462091</v>
+        <v>0.2394371967339281</v>
       </c>
       <c r="Q2">
-        <v>156.1088243753671</v>
+        <v>159.9861489380587</v>
       </c>
       <c r="R2">
-        <v>1404.979419378304</v>
+        <v>1439.875340442528</v>
       </c>
       <c r="S2">
-        <v>0.1201258988454594</v>
+        <v>0.1910757189545564</v>
       </c>
       <c r="T2">
-        <v>0.1333571225397793</v>
+        <v>0.1961682358760292</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>8.603936000000001</v>
       </c>
       <c r="I3">
-        <v>0.5389395658779439</v>
+        <v>0.8192888930871463</v>
       </c>
       <c r="J3">
-        <v>0.5730299235867837</v>
+        <v>0.8192888930871461</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>380.128601</v>
       </c>
       <c r="O3">
-        <v>0.5188649542136915</v>
+        <v>0.5297503589663128</v>
       </c>
       <c r="P3">
-        <v>0.541747194133123</v>
+        <v>0.5438691736537713</v>
       </c>
       <c r="Q3">
         <v>363.4002394192818</v>
@@ -638,10 +638,10 @@
         <v>3270.602154773536</v>
       </c>
       <c r="S3">
-        <v>0.2796368531732061</v>
+        <v>0.4340185852100288</v>
       </c>
       <c r="T3">
-        <v>0.310437353257458</v>
+        <v>0.4455859732670192</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -670,10 +670,10 @@
         <v>8.603936000000001</v>
       </c>
       <c r="I4">
-        <v>0.5389395658779439</v>
+        <v>0.8192888930871463</v>
       </c>
       <c r="J4">
-        <v>0.5730299235867837</v>
+        <v>0.8192888930871461</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.491284</v>
+        <v>23.03749833333333</v>
       </c>
       <c r="N4">
-        <v>52.47385200000001</v>
+        <v>69.112495</v>
       </c>
       <c r="O4">
-        <v>0.07162534664261169</v>
+        <v>0.09631574403765399</v>
       </c>
       <c r="P4">
-        <v>0.07478406521259569</v>
+        <v>0.09888273454277752</v>
       </c>
       <c r="Q4">
-        <v>50.16462936460802</v>
+        <v>66.0710537533689</v>
       </c>
       <c r="R4">
-        <v>451.4816642814721</v>
+        <v>594.63948378032</v>
       </c>
       <c r="S4">
-        <v>0.03860173322542639</v>
+        <v>0.07891041931947444</v>
       </c>
       <c r="T4">
-        <v>0.04285350717428276</v>
+        <v>0.0810135261289823</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,10 +732,10 @@
         <v>8.603936000000001</v>
       </c>
       <c r="I5">
-        <v>0.5389395658779439</v>
+        <v>0.8192888930871463</v>
       </c>
       <c r="J5">
-        <v>0.5730299235867837</v>
+        <v>0.8192888930871461</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.9441155</v>
+        <v>18.627865</v>
       </c>
       <c r="N5">
-        <v>61.888231</v>
+        <v>37.25573</v>
       </c>
       <c r="O5">
-        <v>0.1267135676967176</v>
+        <v>0.07787983970082285</v>
       </c>
       <c r="P5">
-        <v>0.08820113878806125</v>
+        <v>0.05330365312071852</v>
       </c>
       <c r="Q5">
-        <v>88.74706311286936</v>
+        <v>53.42431942554668</v>
       </c>
       <c r="R5">
-        <v>532.482378677216</v>
+        <v>320.5459165532801</v>
       </c>
       <c r="S5">
-        <v>0.06829095516531443</v>
+        <v>0.06380608766229154</v>
       </c>
       <c r="T5">
-        <v>0.05054189181999005</v>
+        <v>0.04367109096277468</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>8.603936000000001</v>
       </c>
       <c r="I6">
-        <v>0.5389395658779439</v>
+        <v>0.8192888930871463</v>
       </c>
       <c r="J6">
-        <v>0.5730299235867837</v>
+        <v>0.8192888930871461</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.62863866666667</v>
+        <v>15.028766</v>
       </c>
       <c r="N6">
-        <v>43.88591599999999</v>
+        <v>45.086298</v>
       </c>
       <c r="O6">
-        <v>0.05990305316690945</v>
+        <v>0.06283263739463307</v>
       </c>
       <c r="P6">
-        <v>0.06254481192001105</v>
+        <v>0.06450724194880479</v>
       </c>
       <c r="Q6">
-        <v>41.95462361837512</v>
+        <v>43.10218027432533</v>
       </c>
       <c r="R6">
-        <v>377.591612565376</v>
+        <v>387.919622468928</v>
       </c>
       <c r="S6">
-        <v>0.03228412546853757</v>
+        <v>0.05147808194079496</v>
       </c>
       <c r="T6">
-        <v>0.03584004879527369</v>
+        <v>0.052850066852341</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3116546666666666</v>
+        <v>0.4707103333333333</v>
       </c>
       <c r="H7">
-        <v>0.9349639999999999</v>
+        <v>1.412131</v>
       </c>
       <c r="I7">
-        <v>0.05856495123528415</v>
+        <v>0.1344667421845124</v>
       </c>
       <c r="J7">
-        <v>0.06226944847990426</v>
+        <v>0.1344667421845124</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.43165466666667</v>
+        <v>55.783591</v>
       </c>
       <c r="N7">
-        <v>163.294964</v>
+        <v>167.350773</v>
       </c>
       <c r="O7">
-        <v>0.2228930782800698</v>
+        <v>0.2332214199005771</v>
       </c>
       <c r="P7">
-        <v>0.2327227899462091</v>
+        <v>0.2394371967339281</v>
       </c>
       <c r="Q7">
-        <v>16.96387919125511</v>
+        <v>26.25791271414034</v>
       </c>
       <c r="R7">
-        <v>152.674912721296</v>
+        <v>236.321214427263</v>
       </c>
       <c r="S7">
-        <v>0.01305372226015466</v>
+        <v>0.03136052454167681</v>
       </c>
       <c r="T7">
-        <v>0.01449151977865505</v>
+        <v>0.03219633980260347</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.3116546666666666</v>
+        <v>0.4707103333333333</v>
       </c>
       <c r="H8">
-        <v>0.9349639999999999</v>
+        <v>1.412131</v>
       </c>
       <c r="I8">
-        <v>0.05856495123528415</v>
+        <v>0.1344667421845124</v>
       </c>
       <c r="J8">
-        <v>0.06226944847990426</v>
+        <v>0.1344667421845124</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>380.128601</v>
       </c>
       <c r="O8">
-        <v>0.5188649542136915</v>
+        <v>0.5297503589663128</v>
       </c>
       <c r="P8">
-        <v>0.541747194133123</v>
+        <v>0.5438691736537713</v>
       </c>
       <c r="Q8">
-        <v>39.48961747837377</v>
+        <v>59.64348682874789</v>
       </c>
       <c r="R8">
-        <v>355.4065573053639</v>
+        <v>536.7913814587311</v>
       </c>
       <c r="S8">
-        <v>0.03038730074122279</v>
+        <v>0.07123380494127607</v>
       </c>
       <c r="T8">
-        <v>0.03373429899420519</v>
+        <v>0.07313231595580545</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.3116546666666666</v>
+        <v>0.4707103333333333</v>
       </c>
       <c r="H9">
-        <v>0.9349639999999999</v>
+        <v>1.412131</v>
       </c>
       <c r="I9">
-        <v>0.05856495123528415</v>
+        <v>0.1344667421845124</v>
       </c>
       <c r="J9">
-        <v>0.06226944847990426</v>
+        <v>0.1344667421845124</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.491284</v>
+        <v>23.03749833333333</v>
       </c>
       <c r="N9">
-        <v>52.47385200000001</v>
+        <v>69.112495</v>
       </c>
       <c r="O9">
-        <v>0.07162534664261169</v>
+        <v>0.09631574403765399</v>
       </c>
       <c r="P9">
-        <v>0.07478406521259569</v>
+        <v>0.09888273454277752</v>
       </c>
       <c r="Q9">
-        <v>5.451240284592001</v>
+        <v>10.84398851964944</v>
       </c>
       <c r="R9">
-        <v>49.061162561328</v>
+        <v>97.595896676845</v>
       </c>
       <c r="S9">
-        <v>0.004194734933334877</v>
+        <v>0.0129512643218207</v>
       </c>
       <c r="T9">
-        <v>0.004656762495873527</v>
+        <v>0.01329643917226324</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3116546666666666</v>
+        <v>0.4707103333333333</v>
       </c>
       <c r="H10">
-        <v>0.9349639999999999</v>
+        <v>1.412131</v>
       </c>
       <c r="I10">
-        <v>0.05856495123528415</v>
+        <v>0.1344667421845124</v>
       </c>
       <c r="J10">
-        <v>0.06226944847990426</v>
+        <v>0.1344667421845124</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.9441155</v>
+        <v>18.627865</v>
       </c>
       <c r="N10">
-        <v>61.888231</v>
+        <v>37.25573</v>
       </c>
       <c r="O10">
-        <v>0.1267135676967176</v>
+        <v>0.07787983970082285</v>
       </c>
       <c r="P10">
-        <v>0.08820113878806125</v>
+        <v>0.05330365312071852</v>
       </c>
       <c r="Q10">
-        <v>9.643878001447334</v>
+        <v>8.768328543438333</v>
       </c>
       <c r="R10">
-        <v>57.863268008684</v>
+        <v>52.60997126063</v>
       </c>
       <c r="S10">
-        <v>0.007420973913007141</v>
+        <v>0.0104722483264217</v>
       </c>
       <c r="T10">
-        <v>0.005492236267632065</v>
+        <v>0.007167568581676336</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3116546666666666</v>
+        <v>0.4707103333333333</v>
       </c>
       <c r="H11">
-        <v>0.9349639999999999</v>
+        <v>1.412131</v>
       </c>
       <c r="I11">
-        <v>0.05856495123528415</v>
+        <v>0.1344667421845124</v>
       </c>
       <c r="J11">
-        <v>0.06226944847990426</v>
+        <v>0.1344667421845124</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.62863866666667</v>
+        <v>15.028766</v>
       </c>
       <c r="N11">
-        <v>43.88591599999999</v>
+        <v>45.086298</v>
       </c>
       <c r="O11">
-        <v>0.05990305316690945</v>
+        <v>0.06283263739463307</v>
       </c>
       <c r="P11">
-        <v>0.06254481192001105</v>
+        <v>0.06450724194880479</v>
       </c>
       <c r="Q11">
-        <v>4.55908350744711</v>
+        <v>7.074195453448667</v>
       </c>
       <c r="R11">
-        <v>41.03175156702399</v>
+        <v>63.667759081038</v>
       </c>
       <c r="S11">
-        <v>0.003508219387564686</v>
+        <v>0.008448900053317077</v>
       </c>
       <c r="T11">
-        <v>0.00389463094353843</v>
+        <v>0.008674078672163896</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.9497545000000001</v>
+        <v>0.1618816666666667</v>
       </c>
       <c r="H12">
-        <v>1.899509</v>
+        <v>0.485645</v>
       </c>
       <c r="I12">
-        <v>0.1784742278140924</v>
+        <v>0.04624436472834143</v>
       </c>
       <c r="J12">
-        <v>0.1265090183286356</v>
+        <v>0.04624436472834143</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>54.43165466666667</v>
+        <v>55.783591</v>
       </c>
       <c r="N12">
-        <v>163.294964</v>
+        <v>167.350773</v>
       </c>
       <c r="O12">
-        <v>0.2228930782800698</v>
+        <v>0.2332214199005771</v>
       </c>
       <c r="P12">
-        <v>0.2327227899462091</v>
+        <v>0.2394371967339281</v>
       </c>
       <c r="Q12">
-        <v>51.69670896211267</v>
+        <v>9.030340683731668</v>
       </c>
       <c r="R12">
-        <v>310.180253772676</v>
+        <v>81.27306615358501</v>
       </c>
       <c r="S12">
-        <v>0.0397806700311415</v>
+        <v>0.01078517640434395</v>
       </c>
       <c r="T12">
-        <v>0.02944153169879618</v>
+        <v>0.01107262105529541</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -1219,19 +1219,19 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.9497545000000001</v>
+        <v>0.1618816666666667</v>
       </c>
       <c r="H13">
-        <v>1.899509</v>
+        <v>0.485645</v>
       </c>
       <c r="I13">
-        <v>0.1784742278140924</v>
+        <v>0.04624436472834143</v>
       </c>
       <c r="J13">
-        <v>0.1265090183286356</v>
+        <v>0.04624436472834143</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>380.128601</v>
       </c>
       <c r="O13">
-        <v>0.5188649542136915</v>
+        <v>0.5297503589663128</v>
       </c>
       <c r="P13">
-        <v>0.541747194133123</v>
+        <v>0.5438691736537713</v>
       </c>
       <c r="Q13">
-        <v>120.3429497928182</v>
+        <v>20.51195049251611</v>
       </c>
       <c r="R13">
-        <v>722.0576987569091</v>
+        <v>184.607554432645</v>
       </c>
       <c r="S13">
-        <v>0.09260402204308298</v>
+        <v>0.02449796881500797</v>
       </c>
       <c r="T13">
-        <v>0.06853590571207417</v>
+        <v>0.02515088443094666</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1269,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>21</v>
@@ -1281,19 +1281,19 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.9497545000000001</v>
+        <v>0.1618816666666667</v>
       </c>
       <c r="H14">
-        <v>1.899509</v>
+        <v>0.485645</v>
       </c>
       <c r="I14">
-        <v>0.1784742278140924</v>
+        <v>0.04624436472834143</v>
       </c>
       <c r="J14">
-        <v>0.1265090183286356</v>
+        <v>0.04624436472834143</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.491284</v>
+        <v>23.03749833333333</v>
       </c>
       <c r="N14">
-        <v>52.47385200000001</v>
+        <v>69.112495</v>
       </c>
       <c r="O14">
-        <v>0.07162534664261169</v>
+        <v>0.09631574403765399</v>
       </c>
       <c r="P14">
-        <v>0.07478406521259569</v>
+        <v>0.09888273454277752</v>
       </c>
       <c r="Q14">
-        <v>16.612425689778</v>
+        <v>3.729348626030555</v>
       </c>
       <c r="R14">
-        <v>99.67455413866801</v>
+        <v>33.564137634275</v>
       </c>
       <c r="S14">
-        <v>0.01278327843395682</v>
+        <v>0.004454060396358848</v>
       </c>
       <c r="T14">
-        <v>0.00946085867667015</v>
+        <v>0.00457276924153197</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.9497545000000001</v>
+        <v>0.1618816666666667</v>
       </c>
       <c r="H15">
-        <v>1.899509</v>
+        <v>0.485645</v>
       </c>
       <c r="I15">
-        <v>0.1784742278140924</v>
+        <v>0.04624436472834143</v>
       </c>
       <c r="J15">
-        <v>0.1265090183286356</v>
+        <v>0.04624436472834143</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.9441155</v>
+        <v>18.627865</v>
       </c>
       <c r="N15">
-        <v>61.888231</v>
+        <v>37.25573</v>
       </c>
       <c r="O15">
-        <v>0.1267135676967176</v>
+        <v>0.07787983970082285</v>
       </c>
       <c r="P15">
-        <v>0.08820113878806125</v>
+        <v>0.05330365312071852</v>
       </c>
       <c r="Q15">
-        <v>29.38931294464475</v>
+        <v>3.015509832641667</v>
       </c>
       <c r="R15">
-        <v>117.557251778579</v>
+        <v>18.09305899585</v>
       </c>
       <c r="S15">
-        <v>0.02261510614824039</v>
+        <v>0.003601503712109617</v>
       </c>
       <c r="T15">
-        <v>0.01115823948354538</v>
+        <v>0.002464993576267502</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.9497545000000001</v>
+        <v>0.1618816666666667</v>
       </c>
       <c r="H16">
-        <v>1.899509</v>
+        <v>0.485645</v>
       </c>
       <c r="I16">
-        <v>0.1784742278140924</v>
+        <v>0.04624436472834143</v>
       </c>
       <c r="J16">
-        <v>0.1265090183286356</v>
+        <v>0.04624436472834143</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.62863866666667</v>
+        <v>15.028766</v>
       </c>
       <c r="N16">
-        <v>43.88591599999999</v>
+        <v>45.086298</v>
       </c>
       <c r="O16">
-        <v>0.05990305316690945</v>
+        <v>0.06283263739463307</v>
       </c>
       <c r="P16">
-        <v>0.06254481192001105</v>
+        <v>0.06450724194880479</v>
       </c>
       <c r="Q16">
-        <v>13.89361540254067</v>
+        <v>2.432881688023333</v>
       </c>
       <c r="R16">
-        <v>83.36169241524399</v>
+        <v>21.89593519221</v>
       </c>
       <c r="S16">
-        <v>0.01069115115767068</v>
+        <v>0.002905655400521037</v>
       </c>
       <c r="T16">
-        <v>0.007912482757549745</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>1.192134</v>
-      </c>
-      <c r="H17">
-        <v>3.576402</v>
-      </c>
-      <c r="I17">
-        <v>0.2240212550726795</v>
-      </c>
-      <c r="J17">
-        <v>0.2381916096046763</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>54.43165466666667</v>
-      </c>
-      <c r="N17">
-        <v>163.294964</v>
-      </c>
-      <c r="O17">
-        <v>0.2228930782800698</v>
-      </c>
-      <c r="P17">
-        <v>0.2327227899462091</v>
-      </c>
-      <c r="Q17">
-        <v>64.88982620439201</v>
-      </c>
-      <c r="R17">
-        <v>584.0084358395279</v>
-      </c>
-      <c r="S17">
-        <v>0.04993278714331423</v>
-      </c>
-      <c r="T17">
-        <v>0.05543261592897852</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>1.192134</v>
-      </c>
-      <c r="H18">
-        <v>3.576402</v>
-      </c>
-      <c r="I18">
-        <v>0.2240212550726795</v>
-      </c>
-      <c r="J18">
-        <v>0.2381916096046763</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>126.7095336666667</v>
-      </c>
-      <c r="N18">
-        <v>380.128601</v>
-      </c>
-      <c r="O18">
-        <v>0.5188649542136915</v>
-      </c>
-      <c r="P18">
-        <v>0.541747194133123</v>
-      </c>
-      <c r="Q18">
-        <v>151.054743208178</v>
-      </c>
-      <c r="R18">
-        <v>1359.492688873602</v>
-      </c>
-      <c r="S18">
-        <v>0.1162367782561795</v>
-      </c>
-      <c r="T18">
-        <v>0.1290396361693856</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>1.192134</v>
-      </c>
-      <c r="H19">
-        <v>3.576402</v>
-      </c>
-      <c r="I19">
-        <v>0.2240212550726795</v>
-      </c>
-      <c r="J19">
-        <v>0.2381916096046763</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>17.491284</v>
-      </c>
-      <c r="N19">
-        <v>52.47385200000001</v>
-      </c>
-      <c r="O19">
-        <v>0.07162534664261169</v>
-      </c>
-      <c r="P19">
-        <v>0.07478406521259569</v>
-      </c>
-      <c r="Q19">
-        <v>20.85195436005601</v>
-      </c>
-      <c r="R19">
-        <v>187.667589240504</v>
-      </c>
-      <c r="S19">
-        <v>0.0160456000498936</v>
-      </c>
-      <c r="T19">
-        <v>0.01781293686576925</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>1.192134</v>
-      </c>
-      <c r="H20">
-        <v>3.576402</v>
-      </c>
-      <c r="I20">
-        <v>0.2240212550726795</v>
-      </c>
-      <c r="J20">
-        <v>0.2381916096046763</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>30.9441155</v>
-      </c>
-      <c r="N20">
-        <v>61.888231</v>
-      </c>
-      <c r="O20">
-        <v>0.1267135676967176</v>
-      </c>
-      <c r="P20">
-        <v>0.08820113878806125</v>
-      </c>
-      <c r="Q20">
-        <v>36.889532187477</v>
-      </c>
-      <c r="R20">
-        <v>221.337193124862</v>
-      </c>
-      <c r="S20">
-        <v>0.02838653247015561</v>
-      </c>
-      <c r="T20">
-        <v>0.02100877121689376</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>1.192134</v>
-      </c>
-      <c r="H21">
-        <v>3.576402</v>
-      </c>
-      <c r="I21">
-        <v>0.2240212550726795</v>
-      </c>
-      <c r="J21">
-        <v>0.2381916096046763</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>14.62863866666667</v>
-      </c>
-      <c r="N21">
-        <v>43.88591599999999</v>
-      </c>
-      <c r="O21">
-        <v>0.05990305316690945</v>
-      </c>
-      <c r="P21">
-        <v>0.06254481192001105</v>
-      </c>
-      <c r="Q21">
-        <v>17.439297528248</v>
-      </c>
-      <c r="R21">
-        <v>156.953677754232</v>
-      </c>
-      <c r="S21">
-        <v>0.0134195571531365</v>
-      </c>
-      <c r="T21">
-        <v>0.01489764942364918</v>
+        <v>0.002983096424299895</v>
       </c>
     </row>
   </sheetData>
